--- a/experiments/2022_scientific_reports/results/statistics/stats_questionnaire_pss.xlsx
+++ b/experiments/2022_scientific_reports/results/statistics/stats_questionnaire_pss.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="parameter" sheetId="1" r:id="rId1"/>
     <sheet name="normality" sheetId="2" r:id="rId2"/>
-    <sheet name="pairwise_ttests" sheetId="3" r:id="rId3"/>
+    <sheet name="pairwise_tests" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -90,7 +90,7 @@
     <t>0.369</t>
   </si>
   <si>
-    <t>Pairwise t-Tests</t>
+    <t>Pairwise Tests</t>
   </si>
 </sst>
 </file>

--- a/experiments/2022_scientific_reports/results/statistics/stats_questionnaire_pss.xlsx
+++ b/experiments/2022_scientific_reports/results/statistics/stats_questionnaire_pss.xlsx
@@ -87,7 +87,7 @@
     <t>two-sided</t>
   </si>
   <si>
-    <t>0.369</t>
+    <t>0.461</t>
   </si>
   <si>
     <t>Pairwise Tests</t>
@@ -510,10 +510,10 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9654</v>
+        <v>0.9817</v>
       </c>
       <c r="C3">
-        <v>0.8575</v>
+        <v>0.9893999999999999</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -524,10 +524,10 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8455</v>
+        <v>0.8204</v>
       </c>
       <c r="C4">
-        <v>0.025</v>
+        <v>0.012</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -606,22 +606,22 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>-0.0668</v>
+        <v>0.7823</v>
       </c>
       <c r="H3">
-        <v>22.8676</v>
+        <v>22.1656</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
       <c r="J3">
-        <v>0.9473</v>
+        <v>0.4423</v>
       </c>
       <c r="K3" t="s">
         <v>23</v>
       </c>
       <c r="L3">
-        <v>-0.0257</v>
+        <v>0.2994</v>
       </c>
     </row>
   </sheetData>
